--- a/biology/Médecine/Potentiel_d'action_cardiaque/Potentiel_d'action_cardiaque.xlsx
+++ b/biology/Médecine/Potentiel_d'action_cardiaque/Potentiel_d'action_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action_cardiaque</t>
+          <t>Potentiel_d'action_cardiaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le potentiel d'action cardiaque correspond à une modification brutale, rapide et locale du potentiel de repos de la cellule excitable. Il s'agit de concepts électrophysiologiques c'est-à-dire concernant la physiologie de l'activité électrique du myocarde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action_cardiaque</t>
+          <t>Potentiel_d'action_cardiaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Notion de potentiel membranaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle potentiel membranaire la différence de potentiel électrique (ddp) entre les secteurs intracellulaire et extracellulaire. C'est la répartition différente des ions de part et d'autre de la membrane cellulaire (de constitution lipidique) qui en est à l'origine. On dit que le potentiel membranaire est négatif (ici -
 90 mV) lorsque la charge en ions est plus négative à l'intérieur qu'à l'extérieur de la cellule et vice versa. C'est les cas de la cellule "au repos". Ce potentiel est sous le contrôle de trois principaux ions : le potassium (K+), le sodium (Na+), et le calcium (Ca2+). Ce sont les seuls susceptibles de passer la membrane.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action_cardiaque</t>
+          <t>Potentiel_d'action_cardiaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cinq phases du potentiel d'action cardiaque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas des cellules cardiaques, le potentiel va connaître 5 phases
 Phase 0 ou dépolarisation rapide : l’ouverture des canaux Na+ génère un courant entrant de très forte amplitude. On a une dépolarisation de la membrane due à une phase ascendante sodique. Comme la conductance de Na+ est nettement supérieure à la conductance de K+, le potentiel membranaire se rapproche de ENa+.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action_cardiaque</t>
+          <t>Potentiel_d'action_cardiaque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Différents potentiels membranaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cela permet de définir 8 potentiels :
 Le potentiel de repos (Phase 4)
